--- a/web/templates/studentcard.xlsx
+++ b/web/templates/studentcard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenceslaus/PhpstormProjects/arina/web/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCC9DF-0F4D-CE47-BF1D-4AFE2FC74FF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437900-800A-914F-8392-7F8831C97877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>Форма № Н-2.03</t>
   </si>
@@ -42,9 +42,6 @@
     <t>(найменування навчального закладу)</t>
   </si>
   <si>
-    <t xml:space="preserve"> тел. матері 097-261-56-75, тел. батька 068-712-87-53 </t>
-  </si>
-  <si>
     <t xml:space="preserve">   (поштовий індекс, область, район, назва населеного пункту, вулиця, номери будинку,  квартири, телефону)</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Зміст наказу</t>
-  </si>
-  <si>
-    <t>Наказ про зарахування</t>
   </si>
   <si>
     <r>
@@ -91,12 +85,6 @@
     </r>
   </si>
   <si>
-    <t>Хмельницька обл., м.Хмельницький, Пр.Миру, 92/1, кв.22,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> тел.студ._096-692-88-70</t>
-  </si>
-  <si>
     <t>Освітньо-кваліфікаційний рівень</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>sample_text</t>
   </si>
   <si>
-    <t>№22 від 11.08.2016 р.</t>
-  </si>
-  <si>
     <t xml:space="preserve">13. Виконання навчального плану </t>
   </si>
   <si>
@@ -576,6 +561,9 @@
   </si>
   <si>
     <t>Другий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living address, living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address </t>
   </si>
 </sst>
 </file>
@@ -958,9 +946,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1048,26 +1033,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1084,15 +1078,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1129,14 +1114,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1461,72 +1449,72 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,11 +1528,11 @@
     </row>
     <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1565,12 +1553,12 @@
     </row>
     <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="L7" s="10" t="s">
-        <v>17</v>
+      <c r="L7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" s="3"/>
@@ -1580,12 +1568,12 @@
     </row>
     <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1595,55 +1583,55 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="18"/>
+    <row r="9" spans="1:26" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1653,8 +1641,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="10" t="s">
-        <v>34</v>
+      <c r="J11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1666,12 +1654,12 @@
     </row>
     <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="F12" s="10" t="s">
-        <v>30</v>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1683,15 +1671,15 @@
     </row>
     <row r="13" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="G13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1702,12 +1690,12 @@
     </row>
     <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="E14" s="10" t="s">
-        <v>22</v>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1719,12 +1707,12 @@
     </row>
     <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1735,36 +1723,36 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="E17" s="10" t="s">
-        <v>24</v>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1776,83 +1764,81 @@
     </row>
     <row r="18" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="J18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="J18" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
     </row>
     <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="J22" s="10" t="s">
-        <v>56</v>
+      <c r="J22" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1864,12 +1850,12 @@
     </row>
     <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="J23" s="10" t="s">
-        <v>37</v>
+      <c r="J23" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1881,18 +1867,18 @@
     </row>
     <row r="24" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1903,12 +1889,12 @@
     </row>
     <row r="25" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="I25" s="10" t="s">
-        <v>56</v>
+      <c r="I25" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1918,37 +1904,37 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="18"/>
+    <row r="26" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="F27" s="10" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1958,38 +1944,38 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="18"/>
+    <row r="28" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="17"/>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="10" t="s">
-        <v>56</v>
+      <c r="N29" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -1999,12 +1985,12 @@
     </row>
     <row r="30" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="E30" s="10" t="s">
-        <v>56</v>
+      <c r="E30" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2016,35 +2002,35 @@
     </row>
     <row r="31" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="F32" s="10" t="s">
-        <v>56</v>
+      <c r="F32" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2054,80 +2040,80 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="18"/>
+    <row r="33" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
+      <c r="A34" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2136,272 +2122,99 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
-        <v>1</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-    </row>
-    <row r="40" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-    </row>
-    <row r="41" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-    </row>
-    <row r="42" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-    </row>
-    <row r="43" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-    </row>
-    <row r="44" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-    </row>
-    <row r="45" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-    </row>
-    <row r="46" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-    </row>
-    <row r="47" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-    </row>
+      <c r="A39" s="14"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+    </row>
+    <row r="40" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B41:M41"/>
+  <mergeCells count="17">
+    <mergeCell ref="J18:R20"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A16:R16"/>
     <mergeCell ref="A26:R26"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="A10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967294"/>
@@ -2415,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A1993-5B38-5444-ABB5-0A6DA2527095}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2430,591 +2243,558 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="E3" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="G4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="D5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="21" t="s">
+      <c r="B16" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="E25" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="G26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63" t="s">
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="21" t="s">
+      <c r="D27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="E36" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="58"/>
+    </row>
+    <row r="37" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="G37" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63" t="s">
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="21" t="s">
+      <c r="D38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="60"/>
-    </row>
-    <row r="38" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -3030,6 +2810,39 @@
     <mergeCell ref="H35:H37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3063,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3072,142 +2885,142 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="32"/>
+      <c r="A2" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="32"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="32"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="32"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3216,104 +3029,104 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
     </row>
     <row r="10" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="32"/>
+      <c r="A10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3322,166 +3135,166 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="A16" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3490,14 +3303,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3506,14 +3319,14 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3522,78 +3335,78 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+        <v>90</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+        <v>81</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+        <v>83</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3602,26 +3415,26 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="A33" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -3632,14 +3445,14 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3648,14 +3461,14 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3664,14 +3477,14 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3680,14 +3493,14 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3696,10 +3509,10 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -3710,14 +3523,14 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3726,10 +3539,10 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3740,14 +3553,14 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3756,14 +3569,14 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3772,14 +3585,14 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3788,14 +3601,14 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3804,14 +3617,14 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3820,14 +3633,14 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3836,14 +3649,14 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3852,160 +3665,127 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="A49" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="H2:I3"/>
@@ -4022,6 +3802,39 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/templates/studentcard.xlsx
+++ b/web/templates/studentcard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenceslaus/PhpstormProjects/arina/web/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437900-800A-914F-8392-7F8831C97877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D888A-727C-C447-B32D-4846F65D0A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>Форма № Н-2.03</t>
   </si>
@@ -451,37 +451,7 @@
     <t>17. Отримано за весь термін навчання у вищому навчальному закладі підсумкових оцінок:</t>
   </si>
   <si>
-    <t xml:space="preserve">                                           усього ___________________, з них (за національною шкалою):          </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">«добре»   ____________     </t>
-  </si>
-  <si>
-    <r>
-      <t>«задовільно» ________</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">                                        </t>
@@ -515,9 +485,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">«відмінно» __________ </t>
   </si>
   <si>
     <r>
@@ -564,6 +531,24 @@
   </si>
   <si>
     <t xml:space="preserve">living address, living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address , living address </t>
+  </si>
+  <si>
+    <t>«відмінно»</t>
+  </si>
+  <si>
+    <t>«добре»</t>
+  </si>
+  <si>
+    <t>«задовільно»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, з них (за національною шкалою):    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>усього</t>
   </si>
 </sst>
 </file>
@@ -693,14 +678,15 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -715,7 +701,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -919,11 +905,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1033,27 +1056,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,6 +1146,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,8 +1173,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1449,72 +1499,72 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1584,49 +1634,49 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:26" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,26 +1773,26 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,32 +1818,32 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="J18" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
+      <c r="J18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,15 +1852,15 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1905,26 +1955,26 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
       <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1945,26 +1995,26 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
       <c r="S28" s="17"/>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,49 +2091,49 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
       <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,68 +2175,68 @@
       <c r="A37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
     </row>
     <row r="39" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
     </row>
     <row r="40" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2203,6 +2253,8 @@
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="N37:R37"/>
     <mergeCell ref="N38:R38"/>
@@ -2210,11 +2262,9 @@
     <mergeCell ref="B39:M39"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="A33:R33"/>
-    <mergeCell ref="A9:R9"/>
     <mergeCell ref="A34:R34"/>
     <mergeCell ref="B37:M37"/>
     <mergeCell ref="B38:M38"/>
-    <mergeCell ref="A10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967294"/>
@@ -2229,7 +2279,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2247,64 +2297,64 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="60" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="58"/>
+      <c r="E3" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>96</v>
+      <c r="B5" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>62</v>
@@ -2327,8 +2377,8 @@
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2338,9 +2388,9 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52" t="s">
-        <v>97</v>
+      <c r="A7" s="53"/>
+      <c r="B7" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>62</v>
@@ -2363,8 +2413,8 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2374,16 +2424,16 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2393,61 +2443,61 @@
       <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="57" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="58"/>
+      <c r="E14" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>96</v>
+      <c r="B16" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>62</v>
@@ -2469,8 +2519,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -2479,9 +2529,9 @@
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52" t="s">
-        <v>97</v>
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>62</v>
@@ -2503,8 +2553,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2513,75 +2563,75 @@
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="64"/>
+      <c r="F24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="57" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="57" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="58"/>
+      <c r="E25" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>96</v>
+      <c r="B27" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>62</v>
@@ -2603,8 +2653,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -2613,9 +2663,9 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="52" t="s">
-        <v>97</v>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>62</v>
@@ -2637,8 +2687,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -2647,75 +2697,75 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62" t="s">
+      <c r="E35" s="64"/>
+      <c r="F35" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="57" t="s">
+      <c r="G35" s="66"/>
+      <c r="H35" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="57" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="58"/>
+      <c r="E36" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="51" t="s">
-        <v>96</v>
+      <c r="B38" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>62</v>
@@ -2737,8 +2787,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -2747,9 +2797,9 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52" t="s">
-        <v>97</v>
+      <c r="A40" s="53"/>
+      <c r="B40" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>62</v>
@@ -2771,8 +2821,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -2781,16 +2831,16 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2851,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1E8338-FAEC-074F-84B5-E13B371E6752}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2863,18 +2913,20 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
@@ -2885,121 +2937,128 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="L1" s="31"/>
+      <c r="I1" s="5"/>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="35"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="35"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="14" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="34"/>
       <c r="M3" s="34"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="34"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="34"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="34"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="34"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="34"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="34"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="32"/>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="37"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="32"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="N7" s="32"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -3008,17 +3067,18 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="L8" s="31"/>
+      <c r="I8" s="28"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32"/>
+      <c r="O8" s="31"/>
+      <c r="T8" s="31"/>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
       <c r="X8" s="32"/>
-    </row>
-    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y8" s="32"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -3029,89 +3089,94 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="L9" s="31"/>
+      <c r="I9" s="5"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32"/>
+      <c r="O9" s="31"/>
+      <c r="T9" s="31"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
-    </row>
-    <row r="10" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="Y9" s="32"/>
+    </row>
+    <row r="10" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68" t="s">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="77"/>
+      <c r="I10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="35"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="N10" s="35"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="31"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="31"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="31"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3120,11 +3185,12 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="L14" s="31"/>
+      <c r="I14" s="28"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -3135,151 +3201,160 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="L15" s="31"/>
+      <c r="I15" s="5"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="68" t="s">
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="14" t="s">
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="31"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="38"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="38"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -3288,11 +3363,12 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="28"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -3303,30 +3379,38 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="40">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3335,12 +3419,13 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -3350,13 +3435,16 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="30"/>
+        <v>95</v>
+      </c>
+      <c r="J28" s="78">
+        <v>0</v>
+      </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -3366,13 +3454,16 @@
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="J29" s="78">
+        <v>0</v>
+      </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3382,13 +3473,16 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="J30" s="78">
+        <v>0</v>
+      </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -3397,16 +3491,17 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-      <c r="I31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3415,14 +3510,15 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -3431,12 +3527,13 @@
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3445,14 +3542,15 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3461,14 +3559,15 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3477,14 +3576,15 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3493,14 +3593,15 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3509,12 +3610,13 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3523,14 +3625,15 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3539,12 +3642,13 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3553,14 +3657,15 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M41" s="30"/>
+    </row>
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3569,14 +3674,15 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="30"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
-    </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3585,14 +3691,15 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
-    </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3601,14 +3708,15 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3617,14 +3725,15 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
-    </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M45" s="30"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3633,14 +3742,15 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
-    </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M46" s="30"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3649,14 +3759,15 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
-    </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M47" s="30"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3665,14 +3776,15 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
-    </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="M48" s="30"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3681,12 +3793,13 @@
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="30"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -3699,8 +3812,9 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -3713,8 +3827,9 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="30"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -3727,8 +3842,9 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="30"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -3741,8 +3857,9 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="30"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -3755,8 +3872,9 @@
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -3769,8 +3887,9 @@
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -3783,58 +3902,59 @@
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H2:J3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/templates/studentcard.xlsx
+++ b/web/templates/studentcard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenceslaus/PhpstormProjects/arina/web/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D888A-727C-C447-B32D-4846F65D0A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4664738-D2AB-8042-8068-45CBE228291C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>Форма № Н-2.03</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Семестровий контроль, оцінка</t>
   </si>
   <si>
-    <t>Дата складання семестрового контролю  й номер відомості</t>
-  </si>
-  <si>
     <t>годин</t>
   </si>
   <si>
@@ -376,12 +373,6 @@
   </si>
   <si>
     <t>за національною шкалою</t>
-  </si>
-  <si>
-    <t>Sample_text</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>COURSE 0000 - 0000 STUDY YEAR</t>
@@ -457,9 +448,6 @@
     <t xml:space="preserve">                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">        Завідувач відділення   ____________________  _____________________________</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">                                                        </t>
     </r>
@@ -550,12 +538,24 @@
   <si>
     <t>усього</t>
   </si>
+  <si>
+    <t>Дата складання семестрового контролю</t>
+  </si>
+  <si>
+    <t>Номер відомості</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Завідувач відділення   ____________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Завідувач відділення   ____________________ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,13 +663,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
@@ -701,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -942,11 +935,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -977,9 +988,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,19 +1006,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1019,10 +1021,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1059,12 +1061,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,27 +1091,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1146,6 +1142,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,17 +1169,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1499,72 +1513,72 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,50 +1647,50 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:26" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="17"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1773,26 +1787,26 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,32 +1832,32 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="J18" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
+      <c r="J18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1852,34 +1866,34 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1954,28 +1968,28 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:19" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="17"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -1994,28 +2008,28 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:19" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="17"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -2090,50 +2104,50 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:19" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="17"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,24 +2155,24 @@
         <v>51</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,71 +2186,71 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
     </row>
     <row r="39" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
     </row>
     <row r="40" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2247,14 +2261,7 @@
     <row r="46" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J18:R20"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
+  <mergeCells count="18">
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="N37:R37"/>
     <mergeCell ref="N38:R38"/>
@@ -2265,6 +2272,14 @@
     <mergeCell ref="A34:R34"/>
     <mergeCell ref="B37:M37"/>
     <mergeCell ref="B38:M38"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="J18:R20"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967294"/>
@@ -2278,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A1993-5B38-5444-ABB5-0A6DA2527095}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2297,569 +2312,517 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B24" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C24" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D24" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="60" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60" t="s">
+      <c r="E25" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="20" t="s">
+      <c r="G26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B27" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+    </row>
+    <row r="37" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="61"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="62"/>
-    </row>
-    <row r="38" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51"/>
-    </row>
-    <row r="43" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
+  <mergeCells count="52">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -2871,28 +2834,19 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G14"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2903,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1E8338-FAEC-074F-84B5-E13B371E6752}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2882,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2938,149 +2892,149 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="14" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
     </row>
     <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3090,109 +3044,109 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="10" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="31"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3202,175 +3156,175 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="A16" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="64"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="14" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3380,37 +3334,37 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="40">
+      <c r="E26" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="37">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3420,118 +3374,118 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="78">
+        <v>91</v>
+      </c>
+      <c r="J28" s="38">
         <v>0</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="78">
+        <v>92</v>
+      </c>
+      <c r="J29" s="38">
         <v>0</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="78">
+        <v>93</v>
+      </c>
+      <c r="J30" s="38">
         <v>0</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="A33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -3543,14 +3497,14 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3560,14 +3514,14 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3577,14 +3531,14 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3594,14 +3548,14 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3611,10 +3565,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -3626,14 +3580,14 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3643,10 +3597,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3658,14 +3612,14 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3675,14 +3629,14 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3692,14 +3646,14 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3709,14 +3663,14 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3726,14 +3680,14 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3743,14 +3697,14 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3760,190 +3714,154 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+      <c r="A49" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="51">
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F48:H48"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I12:L12"/>
@@ -3955,6 +3873,44 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
